--- a/Employee_Reports35/Abdunaser Ahmed Aragaw Q0042.xlsx
+++ b/Employee_Reports35/Abdunaser Ahmed Aragaw Q0042.xlsx
@@ -563,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -600,11 +600,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -637,11 +637,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">

--- a/Employee_Reports35/Abdunaser Ahmed Aragaw Q0042.xlsx
+++ b/Employee_Reports35/Abdunaser Ahmed Aragaw Q0042.xlsx
@@ -563,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -600,11 +600,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -637,11 +637,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
